--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output-2.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output-2.xlsx
@@ -647,7 +647,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1408,7 +1408,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2351,7 +2351,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2477,7 +2477,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2844,7 +2844,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2914,7 +2914,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
